--- a/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
+++ b/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA063AE-FF6B-4CD3-8320-215CA88E1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055BC86-B787-4CD1-A066-1CC31E07A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="7980" windowWidth="14325" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="14640" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +215,29 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -247,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,9 +335,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,14 +344,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -371,7 +426,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:F30">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="User Story"/>
@@ -582,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -631,10 +686,10 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
     </row>
@@ -651,10 +706,10 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
     </row>
@@ -671,10 +726,10 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -691,10 +746,10 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -705,16 +760,16 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -722,7 +777,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -731,10 +786,10 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="12">
         <v>3</v>
       </c>
     </row>
@@ -751,10 +806,10 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
     </row>
@@ -765,338 +820,370 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9">
-        <v>2</v>
+      <c r="F14" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3</v>
+      <c r="E15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8">
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="9">
-        <v>2</v>
+      <c r="F19" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="9">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="9">
-        <v>2</v>
+      <c r="F21" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="9">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9">
-        <v>3</v>
+      <c r="F23" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="19">
         <v>11</v>
       </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="D25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
+      <c r="F25" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
+++ b/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055BC86-B787-4CD1-A066-1CC31E07A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50174A10-7247-4644-908A-E6BCA5CDC5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="0" windowWidth="14640" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,7 +917,7 @@
       <c r="A14" s="3">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="8">

--- a/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
+++ b/Documents/Deliverable_6/CSwap_Deliverable_6_ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50174A10-7247-4644-908A-E6BCA5CDC5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041E1EE-2D36-4736-A7A2-2BB9EB517281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="14640" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="990" windowWidth="14640" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,8 +946,8 @@
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>34</v>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="10">
         <v>2</v>
